--- a/Molina Quezada Raúl 20212.xlsx
+++ b/Molina Quezada Raúl 20212.xlsx
@@ -2315,7 +2315,7 @@
         <v>159</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2452,7 +2452,7 @@
         <v>163</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
